--- a/Modèle-audit-SEO.xlsx
+++ b/Modèle-audit-SEO.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="76">
   <si>
     <t>Catégorie</t>
   </si>
@@ -173,9 +173,6 @@
     <t>rajout header main section et footer</t>
   </si>
   <si>
-    <t>remplacement format photo</t>
-  </si>
-  <si>
     <t>mal codé</t>
   </si>
   <si>
@@ -246,6 +243,15 @@
   </si>
   <si>
     <t>modif erreur</t>
+  </si>
+  <si>
+    <t>remplacement format photo + compression photo</t>
+  </si>
+  <si>
+    <t>rajoue de title pour les images des logos principaux</t>
+  </si>
+  <si>
+    <t>rajoue title</t>
   </si>
 </sst>
 </file>
@@ -538,8 +544,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z999"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C4" workbookViewId="0">
-      <selection activeCell="F25" sqref="D25:F25"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.21875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -615,13 +621,13 @@
         <v>34</v>
       </c>
       <c r="B3" t="s">
+        <v>52</v>
+      </c>
+      <c r="C3" t="s">
         <v>53</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>54</v>
-      </c>
-      <c r="D3" t="s">
-        <v>55</v>
       </c>
       <c r="E3" s="4"/>
     </row>
@@ -647,13 +653,13 @@
         <v>33</v>
       </c>
       <c r="B5" t="s">
+        <v>59</v>
+      </c>
+      <c r="C5" t="s">
         <v>60</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D5" t="s">
         <v>61</v>
-      </c>
-      <c r="D5" t="s">
-        <v>62</v>
       </c>
       <c r="E5" s="4"/>
     </row>
@@ -662,10 +668,10 @@
         <v>34</v>
       </c>
       <c r="B6" t="s">
+        <v>68</v>
+      </c>
+      <c r="D6" t="s">
         <v>69</v>
-      </c>
-      <c r="D6" t="s">
-        <v>70</v>
       </c>
       <c r="E6" s="4"/>
     </row>
@@ -680,7 +686,7 @@
         <v>36</v>
       </c>
       <c r="D7" t="s">
-        <v>49</v>
+        <v>73</v>
       </c>
       <c r="E7" s="4" t="b">
         <v>0</v>
@@ -731,7 +737,7 @@
         <v>41</v>
       </c>
       <c r="D10" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E10" s="4" t="b">
         <v>0</v>
@@ -884,7 +890,7 @@
         <v>47</v>
       </c>
       <c r="C20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D20" t="s">
         <v>48</v>
@@ -895,13 +901,13 @@
         <v>33</v>
       </c>
       <c r="B21" t="s">
+        <v>50</v>
+      </c>
+      <c r="C21" t="s">
+        <v>70</v>
+      </c>
+      <c r="D21" t="s">
         <v>51</v>
-      </c>
-      <c r="C21" t="s">
-        <v>71</v>
-      </c>
-      <c r="D21" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -909,13 +915,13 @@
         <v>33</v>
       </c>
       <c r="B22" t="s">
+        <v>55</v>
+      </c>
+      <c r="C22" t="s">
         <v>56</v>
       </c>
-      <c r="C22" t="s">
+      <c r="D22" t="s">
         <v>57</v>
-      </c>
-      <c r="D22" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -923,13 +929,13 @@
         <v>33</v>
       </c>
       <c r="B23" t="s">
+        <v>62</v>
+      </c>
+      <c r="C23" t="s">
         <v>63</v>
       </c>
-      <c r="C23" t="s">
+      <c r="D23" t="s">
         <v>64</v>
-      </c>
-      <c r="D23" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -937,13 +943,13 @@
         <v>33</v>
       </c>
       <c r="B24" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C24" t="s">
+        <v>65</v>
+      </c>
+      <c r="D24" t="s">
         <v>66</v>
-      </c>
-      <c r="D24" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -951,16 +957,26 @@
         <v>33</v>
       </c>
       <c r="B25" t="s">
+        <v>71</v>
+      </c>
+      <c r="C25" t="s">
+        <v>49</v>
+      </c>
+      <c r="D25" t="s">
         <v>72</v>
       </c>
-      <c r="C25" t="s">
-        <v>50</v>
-      </c>
-      <c r="D25" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    </row>
+    <row r="26" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>33</v>
+      </c>
+      <c r="B26" t="s">
+        <v>74</v>
+      </c>
+      <c r="D26" t="s">
+        <v>75</v>
+      </c>
+    </row>
     <row r="27" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="28" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="29" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>

--- a/Modèle-audit-SEO.xlsx
+++ b/Modèle-audit-SEO.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="77">
   <si>
     <t>Catégorie</t>
   </si>
@@ -252,6 +252,9 @@
   </si>
   <si>
     <t>rajoue title</t>
+  </si>
+  <si>
+    <t>supression des .min pour les fichiers css et js</t>
   </si>
 </sst>
 </file>
@@ -545,7 +548,7 @@
   <dimension ref="A1:Z999"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="D26" sqref="D26"/>
+      <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.21875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -977,7 +980,14 @@
         <v>75</v>
       </c>
     </row>
-    <row r="27" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="27" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>33</v>
+      </c>
+      <c r="B27" t="s">
+        <v>76</v>
+      </c>
+    </row>
     <row r="28" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="29" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="30" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>

--- a/Modèle-audit-SEO.xlsx
+++ b/Modèle-audit-SEO.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="80">
   <si>
     <t>Catégorie</t>
   </si>
@@ -255,6 +255,15 @@
   </si>
   <si>
     <t>supression des .min pour les fichiers css et js</t>
+  </si>
+  <si>
+    <t xml:space="preserve">suppresion du mot device des media queries </t>
+  </si>
+  <si>
+    <t>erreur au W3C</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chemin d'accès au fichier pas correct </t>
   </si>
 </sst>
 </file>
@@ -547,8 +556,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z999"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="B27" sqref="B27"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="C31" sqref="C31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.21875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -987,8 +996,21 @@
       <c r="B27" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="28" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+      <c r="C27" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>33</v>
+      </c>
+      <c r="B28" t="s">
+        <v>77</v>
+      </c>
+      <c r="D28" t="s">
+        <v>78</v>
+      </c>
+    </row>
     <row r="29" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="30" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="31" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>

--- a/Modèle-audit-SEO.xlsx
+++ b/Modèle-audit-SEO.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="82">
   <si>
     <t>Catégorie</t>
   </si>
@@ -257,20 +257,26 @@
     <t>supression des .min pour les fichiers css et js</t>
   </si>
   <si>
-    <t xml:space="preserve">suppresion du mot device des media queries </t>
-  </si>
-  <si>
     <t>erreur au W3C</t>
   </si>
   <si>
     <t xml:space="preserve">chemin d'accès au fichier pas correct </t>
+  </si>
+  <si>
+    <t xml:space="preserve">suppression du mot device des media queries </t>
+  </si>
+  <si>
+    <t>suppression de la partie constant(safe-area-inset-left); en css</t>
+  </si>
+  <si>
+    <t>mal codé-erreur au w3c</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -296,6 +302,12 @@
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -331,7 +343,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -339,6 +351,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -556,8 +569,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z999"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="C31" sqref="C31"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.21875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -971,8 +984,8 @@
       <c r="B25" t="s">
         <v>71</v>
       </c>
-      <c r="C25" t="s">
-        <v>49</v>
+      <c r="C25" s="5" t="s">
+        <v>81</v>
       </c>
       <c r="D25" t="s">
         <v>72</v>
@@ -997,7 +1010,7 @@
         <v>76</v>
       </c>
       <c r="C27" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1005,13 +1018,24 @@
         <v>33</v>
       </c>
       <c r="B28" t="s">
+        <v>79</v>
+      </c>
+      <c r="C28" t="s">
         <v>77</v>
       </c>
-      <c r="D28" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    </row>
+    <row r="29" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>33</v>
+      </c>
+      <c r="B29" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="C29" t="s">
+        <v>77</v>
+      </c>
+      <c r="D29" s="5"/>
+    </row>
     <row r="30" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="31" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="32" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1984,6 +2008,6 @@
     <row r="999" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
-  <pageSetup orientation="landscape"/>
+  <pageSetup orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Modèle-audit-SEO.xlsx
+++ b/Modèle-audit-SEO.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="85">
   <si>
     <t>Catégorie</t>
   </si>
@@ -270,6 +270,15 @@
   </si>
   <si>
     <t>mal codé-erreur au w3c</t>
+  </si>
+  <si>
+    <t xml:space="preserve">la langue du site pas précisé </t>
+  </si>
+  <si>
+    <t>rajouté la langue du site</t>
+  </si>
+  <si>
+    <t>&lt;html lang&gt; mal codé</t>
   </si>
 </sst>
 </file>
@@ -567,10 +576,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Z999"/>
+  <dimension ref="A1:Z1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.21875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -646,89 +655,87 @@
         <v>34</v>
       </c>
       <c r="B3" t="s">
+        <v>82</v>
+      </c>
+      <c r="C3" t="s">
+        <v>84</v>
+      </c>
+      <c r="D3" t="s">
+        <v>83</v>
+      </c>
+      <c r="E3" s="4"/>
+    </row>
+    <row r="4" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B4" t="s">
         <v>52</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C4" t="s">
         <v>53</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D4" t="s">
         <v>54</v>
       </c>
-      <c r="E3" s="4"/>
-    </row>
-    <row r="4" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>34</v>
-      </c>
-      <c r="B4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" t="s">
-        <v>28</v>
-      </c>
-      <c r="D4" t="s">
-        <v>18</v>
-      </c>
-      <c r="E4" s="4" t="b">
-        <v>0</v>
-      </c>
+      <c r="E4" s="4"/>
     </row>
     <row r="5" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B5" t="s">
-        <v>59</v>
+        <v>7</v>
       </c>
       <c r="C5" t="s">
-        <v>60</v>
+        <v>28</v>
       </c>
       <c r="D5" t="s">
-        <v>61</v>
-      </c>
-      <c r="E5" s="4"/>
+        <v>18</v>
+      </c>
+      <c r="E5" s="4" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="6" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B6" t="s">
-        <v>68</v>
+        <v>59</v>
+      </c>
+      <c r="C6" t="s">
+        <v>60</v>
       </c>
       <c r="D6" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="E6" s="4"/>
     </row>
     <row r="7" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B7" t="s">
-        <v>8</v>
-      </c>
-      <c r="C7" t="s">
-        <v>36</v>
+        <v>68</v>
       </c>
       <c r="D7" t="s">
-        <v>73</v>
-      </c>
-      <c r="E7" s="4" t="b">
-        <v>0</v>
-      </c>
+        <v>69</v>
+      </c>
+      <c r="E7" s="4"/>
     </row>
     <row r="8" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>33</v>
       </c>
       <c r="B8" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C8" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="D8" t="s">
-        <v>21</v>
+        <v>73</v>
       </c>
       <c r="E8" s="4" t="b">
         <v>0</v>
@@ -739,13 +746,13 @@
         <v>33</v>
       </c>
       <c r="B9" t="s">
-        <v>35</v>
+        <v>9</v>
       </c>
       <c r="C9" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D9" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="E9" s="4" t="b">
         <v>0</v>
@@ -753,16 +760,16 @@
     </row>
     <row r="10" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B10" t="s">
-        <v>10</v>
+        <v>35</v>
       </c>
       <c r="C10" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="D10" t="s">
-        <v>58</v>
+        <v>19</v>
       </c>
       <c r="E10" s="4" t="b">
         <v>0</v>
@@ -773,13 +780,13 @@
         <v>34</v>
       </c>
       <c r="B11" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C11" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D11" t="s">
-        <v>26</v>
+        <v>58</v>
       </c>
       <c r="E11" s="4" t="b">
         <v>0</v>
@@ -790,10 +797,13 @@
         <v>34</v>
       </c>
       <c r="B12" t="s">
-        <v>12</v>
+        <v>11</v>
+      </c>
+      <c r="C12" t="s">
+        <v>42</v>
       </c>
       <c r="D12" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="E12" s="4" t="b">
         <v>0</v>
@@ -804,13 +814,10 @@
         <v>34</v>
       </c>
       <c r="B13" t="s">
-        <v>13</v>
-      </c>
-      <c r="C13" t="s">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="D13" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E13" s="4" t="b">
         <v>0</v>
@@ -818,227 +825,243 @@
     </row>
     <row r="14" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B14" t="s">
-        <v>38</v>
+        <v>13</v>
       </c>
       <c r="C14" t="s">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="D14" t="s">
-        <v>39</v>
-      </c>
-      <c r="E14" s="4"/>
+        <v>25</v>
+      </c>
+      <c r="E14" s="4" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="15" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B15" t="s">
-        <v>14</v>
+        <v>38</v>
       </c>
       <c r="C15" t="s">
-        <v>28</v>
+        <v>40</v>
       </c>
       <c r="D15" t="s">
-        <v>18</v>
-      </c>
-      <c r="E15" s="4" t="b">
-        <v>0</v>
-      </c>
+        <v>39</v>
+      </c>
+      <c r="E15" s="4"/>
     </row>
     <row r="16" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B16" t="s">
-        <v>37</v>
+        <v>14</v>
       </c>
       <c r="C16" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D16" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="E16" s="4" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>33</v>
       </c>
       <c r="B17" t="s">
+        <v>37</v>
+      </c>
+      <c r="C17" t="s">
+        <v>31</v>
+      </c>
+      <c r="D17" t="s">
+        <v>24</v>
+      </c>
+      <c r="E17" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>33</v>
+      </c>
+      <c r="B18" t="s">
         <v>15</v>
       </c>
-      <c r="C17" t="s">
+      <c r="C18" t="s">
         <v>32</v>
       </c>
-      <c r="D17" t="s">
+      <c r="D18" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
+    <row r="19" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
         <v>34</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B19" t="s">
         <v>16</v>
       </c>
-      <c r="C18" t="s">
+      <c r="C19" t="s">
         <v>43</v>
       </c>
-      <c r="D18" t="s">
+      <c r="D19" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
+    <row r="20" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
         <v>33</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B20" t="s">
         <v>44</v>
       </c>
-      <c r="C19" t="s">
+      <c r="C20" t="s">
         <v>46</v>
       </c>
-      <c r="D19" t="s">
+      <c r="D20" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
+    <row r="21" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
         <v>34</v>
       </c>
-      <c r="B20" t="s">
+      <c r="B21" t="s">
         <v>47</v>
       </c>
-      <c r="C20" t="s">
+      <c r="C21" t="s">
         <v>49</v>
       </c>
-      <c r="D20" t="s">
+      <c r="D21" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" t="s">
-        <v>33</v>
-      </c>
-      <c r="B21" t="s">
-        <v>50</v>
-      </c>
-      <c r="C21" t="s">
-        <v>70</v>
-      </c>
-      <c r="D21" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>33</v>
       </c>
       <c r="B22" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="C22" t="s">
-        <v>56</v>
+        <v>70</v>
       </c>
       <c r="D22" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>33</v>
       </c>
       <c r="B23" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="C23" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="D23" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>33</v>
       </c>
       <c r="B24" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="C24" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D24" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>33</v>
       </c>
       <c r="B25" t="s">
-        <v>71</v>
-      </c>
-      <c r="C25" s="5" t="s">
-        <v>81</v>
+        <v>67</v>
+      </c>
+      <c r="C25" t="s">
+        <v>65</v>
       </c>
       <c r="D25" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>33</v>
       </c>
       <c r="B26" t="s">
-        <v>74</v>
+        <v>71</v>
+      </c>
+      <c r="C26" s="5" t="s">
+        <v>81</v>
       </c>
       <c r="D26" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>33</v>
       </c>
       <c r="B27" t="s">
-        <v>76</v>
-      </c>
-      <c r="C27" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>74</v>
+      </c>
+      <c r="D27" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>33</v>
       </c>
       <c r="B28" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="C28" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>33</v>
       </c>
-      <c r="B29" s="5" t="s">
-        <v>80</v>
+      <c r="B29" t="s">
+        <v>79</v>
       </c>
       <c r="C29" t="s">
         <v>77</v>
       </c>
-      <c r="D29" s="5"/>
-    </row>
-    <row r="30" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="31" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="32" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    </row>
+    <row r="30" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>33</v>
+      </c>
+      <c r="B30" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="C30" t="s">
+        <v>77</v>
+      </c>
+      <c r="D30" s="5"/>
+    </row>
+    <row r="31" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="32" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="34" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="35" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2006,6 +2029,7 @@
     <row r="997" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="998" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="999" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="1000" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape" r:id="rId1"/>

--- a/Modèle-audit-SEO.xlsx
+++ b/Modèle-audit-SEO.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="88">
   <si>
     <t>Catégorie</t>
   </si>
@@ -279,6 +279,15 @@
   </si>
   <si>
     <t>&lt;html lang&gt; mal codé</t>
+  </si>
+  <si>
+    <t xml:space="preserve">couleur texte dans les boutons pas corrects </t>
+  </si>
+  <si>
+    <t xml:space="preserve">contraste pas bon </t>
+  </si>
+  <si>
+    <t xml:space="preserve">remplacer couleur du texte </t>
   </si>
 </sst>
 </file>
@@ -576,10 +585,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Z1000"/>
+  <dimension ref="A1:Z1001"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView tabSelected="1" topLeftCell="B10" workbookViewId="0">
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.21875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -950,13 +959,13 @@
         <v>33</v>
       </c>
       <c r="B22" t="s">
-        <v>50</v>
+        <v>85</v>
       </c>
       <c r="C22" t="s">
-        <v>70</v>
+        <v>86</v>
       </c>
       <c r="D22" t="s">
-        <v>51</v>
+        <v>87</v>
       </c>
     </row>
     <row r="23" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -964,13 +973,13 @@
         <v>33</v>
       </c>
       <c r="B23" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="C23" t="s">
-        <v>56</v>
+        <v>70</v>
       </c>
       <c r="D23" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
     </row>
     <row r="24" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -978,13 +987,13 @@
         <v>33</v>
       </c>
       <c r="B24" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="C24" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="D24" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
     </row>
     <row r="25" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -992,13 +1001,13 @@
         <v>33</v>
       </c>
       <c r="B25" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="C25" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D25" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="26" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1006,13 +1015,13 @@
         <v>33</v>
       </c>
       <c r="B26" t="s">
-        <v>71</v>
-      </c>
-      <c r="C26" s="5" t="s">
-        <v>81</v>
+        <v>67</v>
+      </c>
+      <c r="C26" t="s">
+        <v>65</v>
       </c>
       <c r="D26" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
     </row>
     <row r="27" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1020,10 +1029,13 @@
         <v>33</v>
       </c>
       <c r="B27" t="s">
-        <v>74</v>
+        <v>71</v>
+      </c>
+      <c r="C27" s="5" t="s">
+        <v>81</v>
       </c>
       <c r="D27" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
     </row>
     <row r="28" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1031,10 +1043,10 @@
         <v>33</v>
       </c>
       <c r="B28" t="s">
-        <v>76</v>
-      </c>
-      <c r="C28" t="s">
-        <v>78</v>
+        <v>74</v>
+      </c>
+      <c r="D28" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="29" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1042,25 +1054,35 @@
         <v>33</v>
       </c>
       <c r="B29" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="C29" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="30" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>33</v>
       </c>
-      <c r="B30" s="5" t="s">
-        <v>80</v>
+      <c r="B30" t="s">
+        <v>79</v>
       </c>
       <c r="C30" t="s">
         <v>77</v>
       </c>
-      <c r="D30" s="5"/>
-    </row>
-    <row r="31" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    </row>
+    <row r="31" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>33</v>
+      </c>
+      <c r="B31" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="C31" t="s">
+        <v>77</v>
+      </c>
+      <c r="D31" s="5"/>
+    </row>
     <row r="32" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="34" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2030,6 +2052,7 @@
     <row r="998" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="999" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="1000" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="1001" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape" r:id="rId1"/>

--- a/Modèle-audit-SEO.xlsx
+++ b/Modèle-audit-SEO.xlsx
@@ -281,13 +281,13 @@
     <t>&lt;html lang&gt; mal codé</t>
   </si>
   <si>
-    <t xml:space="preserve">couleur texte dans les boutons pas corrects </t>
-  </si>
-  <si>
     <t xml:space="preserve">contraste pas bon </t>
   </si>
   <si>
     <t xml:space="preserve">remplacer couleur du texte </t>
+  </si>
+  <si>
+    <t xml:space="preserve">couleur texte dans les boutons et certains textes pas corrects </t>
   </si>
 </sst>
 </file>
@@ -588,7 +588,7 @@
   <dimension ref="A1:Z1001"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B10" workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.21875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -959,13 +959,13 @@
         <v>33</v>
       </c>
       <c r="B22" t="s">
+        <v>87</v>
+      </c>
+      <c r="C22" t="s">
         <v>85</v>
       </c>
-      <c r="C22" t="s">
+      <c r="D22" t="s">
         <v>86</v>
-      </c>
-      <c r="D22" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="23" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">

--- a/Modèle-audit-SEO.xlsx
+++ b/Modèle-audit-SEO.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="91">
   <si>
     <t>Catégorie</t>
   </si>
@@ -288,6 +288,15 @@
   </si>
   <si>
     <t xml:space="preserve">couleur texte dans les boutons et certains textes pas corrects </t>
+  </si>
+  <si>
+    <t>texte écrit trop petit</t>
+  </si>
+  <si>
+    <t>mauvaise taille du texte</t>
+  </si>
+  <si>
+    <t>changement font-zise</t>
   </si>
 </sst>
 </file>
@@ -585,10 +594,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Z1001"/>
+  <dimension ref="A1:Z1002"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B10" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.21875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -772,30 +781,28 @@
         <v>33</v>
       </c>
       <c r="B10" t="s">
-        <v>35</v>
+        <v>88</v>
       </c>
       <c r="C10" t="s">
-        <v>30</v>
+        <v>89</v>
       </c>
       <c r="D10" t="s">
-        <v>19</v>
-      </c>
-      <c r="E10" s="4" t="b">
-        <v>0</v>
-      </c>
+        <v>90</v>
+      </c>
+      <c r="E10" s="4"/>
     </row>
     <row r="11" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B11" t="s">
-        <v>10</v>
+        <v>35</v>
       </c>
       <c r="C11" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="D11" t="s">
-        <v>58</v>
+        <v>19</v>
       </c>
       <c r="E11" s="4" t="b">
         <v>0</v>
@@ -806,13 +813,13 @@
         <v>34</v>
       </c>
       <c r="B12" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C12" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D12" t="s">
-        <v>26</v>
+        <v>58</v>
       </c>
       <c r="E12" s="4" t="b">
         <v>0</v>
@@ -823,10 +830,13 @@
         <v>34</v>
       </c>
       <c r="B13" t="s">
-        <v>12</v>
+        <v>11</v>
+      </c>
+      <c r="C13" t="s">
+        <v>42</v>
       </c>
       <c r="D13" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="E13" s="4" t="b">
         <v>0</v>
@@ -837,13 +847,10 @@
         <v>34</v>
       </c>
       <c r="B14" t="s">
-        <v>13</v>
-      </c>
-      <c r="C14" t="s">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="D14" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E14" s="4" t="b">
         <v>0</v>
@@ -851,121 +858,124 @@
     </row>
     <row r="15" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B15" t="s">
-        <v>38</v>
+        <v>13</v>
       </c>
       <c r="C15" t="s">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="D15" t="s">
-        <v>39</v>
-      </c>
-      <c r="E15" s="4"/>
+        <v>25</v>
+      </c>
+      <c r="E15" s="4" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="16" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B16" t="s">
-        <v>14</v>
+        <v>38</v>
       </c>
       <c r="C16" t="s">
-        <v>28</v>
+        <v>40</v>
       </c>
       <c r="D16" t="s">
-        <v>18</v>
-      </c>
-      <c r="E16" s="4" t="b">
-        <v>0</v>
-      </c>
+        <v>39</v>
+      </c>
+      <c r="E16" s="4"/>
     </row>
     <row r="17" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B17" t="s">
-        <v>37</v>
+        <v>14</v>
       </c>
       <c r="C17" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D17" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="E17" s="4" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>33</v>
       </c>
       <c r="B18" t="s">
-        <v>15</v>
+        <v>37</v>
       </c>
       <c r="C18" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D18" t="s">
-        <v>22</v>
+        <v>24</v>
+      </c>
+      <c r="E18" s="4" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B19" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C19" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="D19" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B20" t="s">
-        <v>44</v>
+        <v>16</v>
       </c>
       <c r="C20" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="D20" t="s">
-        <v>45</v>
+        <v>23</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B21" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C21" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="D21" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B22" t="s">
-        <v>87</v>
+        <v>47</v>
       </c>
       <c r="C22" t="s">
-        <v>85</v>
+        <v>49</v>
       </c>
       <c r="D22" t="s">
-        <v>86</v>
+        <v>48</v>
       </c>
     </row>
     <row r="23" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -973,13 +983,13 @@
         <v>33</v>
       </c>
       <c r="B23" t="s">
-        <v>50</v>
+        <v>87</v>
       </c>
       <c r="C23" t="s">
-        <v>70</v>
+        <v>85</v>
       </c>
       <c r="D23" t="s">
-        <v>51</v>
+        <v>86</v>
       </c>
     </row>
     <row r="24" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -987,13 +997,13 @@
         <v>33</v>
       </c>
       <c r="B24" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="C24" t="s">
-        <v>56</v>
+        <v>70</v>
       </c>
       <c r="D24" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
     </row>
     <row r="25" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1001,13 +1011,13 @@
         <v>33</v>
       </c>
       <c r="B25" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="C25" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="D25" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
     </row>
     <row r="26" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1015,13 +1025,13 @@
         <v>33</v>
       </c>
       <c r="B26" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="C26" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D26" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="27" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1029,13 +1039,13 @@
         <v>33</v>
       </c>
       <c r="B27" t="s">
-        <v>71</v>
-      </c>
-      <c r="C27" s="5" t="s">
-        <v>81</v>
+        <v>67</v>
+      </c>
+      <c r="C27" t="s">
+        <v>65</v>
       </c>
       <c r="D27" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
     </row>
     <row r="28" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1043,10 +1053,13 @@
         <v>33</v>
       </c>
       <c r="B28" t="s">
-        <v>74</v>
+        <v>71</v>
+      </c>
+      <c r="C28" s="5" t="s">
+        <v>81</v>
       </c>
       <c r="D28" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
     </row>
     <row r="29" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1054,10 +1067,10 @@
         <v>33</v>
       </c>
       <c r="B29" t="s">
-        <v>76</v>
-      </c>
-      <c r="C29" t="s">
-        <v>78</v>
+        <v>74</v>
+      </c>
+      <c r="D29" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="30" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1065,25 +1078,35 @@
         <v>33</v>
       </c>
       <c r="B30" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="C30" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="31" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>33</v>
-      </c>
-      <c r="B31" s="5" t="s">
-        <v>80</v>
+        <v>34</v>
+      </c>
+      <c r="B31" t="s">
+        <v>79</v>
       </c>
       <c r="C31" t="s">
         <v>77</v>
       </c>
-      <c r="D31" s="5"/>
-    </row>
-    <row r="32" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    </row>
+    <row r="32" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>34</v>
+      </c>
+      <c r="B32" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="C32" t="s">
+        <v>77</v>
+      </c>
+      <c r="D32" s="5"/>
+    </row>
     <row r="33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="34" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="35" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2053,6 +2076,7 @@
     <row r="999" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="1000" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="1001" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="1002" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape" r:id="rId1"/>

--- a/Modèle-audit-SEO.xlsx
+++ b/Modèle-audit-SEO.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="94">
   <si>
     <t>Catégorie</t>
   </si>
@@ -74,9 +74,6 @@
     <t>les h2 sont des images au lieu de texte</t>
   </si>
   <si>
-    <t>liens sociaux renvoie sur la page d'acceuil</t>
-  </si>
-  <si>
     <t xml:space="preserve">rajout d'un titre </t>
   </si>
   <si>
@@ -95,15 +92,6 @@
     <t>remplacemet img par texte</t>
   </si>
   <si>
-    <t>rajoue des liens externes</t>
-  </si>
-  <si>
-    <t>sup bouton acceuil page principale</t>
-  </si>
-  <si>
-    <t>rajoue d'un titre</t>
-  </si>
-  <si>
     <t>supp class keyword</t>
   </si>
   <si>
@@ -119,12 +107,6 @@
     <t>alt mal remplie</t>
   </si>
   <si>
-    <t>Acceuil pas utile</t>
-  </si>
-  <si>
-    <t>poid supplémentaire pas utilie</t>
-  </si>
-  <si>
     <t>accessibilité</t>
   </si>
   <si>
@@ -137,9 +119,6 @@
     <t>ralentissement chargement pages</t>
   </si>
   <si>
-    <t>Le bouton acceuil ne dois pas apparaître sur la page1</t>
-  </si>
-  <si>
     <t>bouton acceuil page 2 pas visible</t>
   </si>
   <si>
@@ -155,9 +134,6 @@
     <t>spammy risque sanction Google</t>
   </si>
   <si>
-    <t>les liens renvoie sur la page acceuil du site</t>
-  </si>
-  <si>
     <t xml:space="preserve">pas de liens sociaux sur la page 2 </t>
   </si>
   <si>
@@ -167,18 +143,12 @@
     <t>liens inexistant</t>
   </si>
   <si>
-    <t>sémantique pas correct</t>
-  </si>
-  <si>
     <t>rajout header main section et footer</t>
   </si>
   <si>
     <t>mal codé</t>
   </si>
   <si>
-    <t>sur la page 2 le texte et caché par une bannière</t>
-  </si>
-  <si>
     <t>supprimer la banière pour voir le texte</t>
   </si>
   <si>
@@ -215,9 +185,6 @@
     <t>l'adresse mail de la page 2 ne renvoie nulle part</t>
   </si>
   <si>
-    <t>pas d'adresse mail affilé</t>
-  </si>
-  <si>
     <t>création d'un lien vers renvoie boite mail</t>
   </si>
   <si>
@@ -248,12 +215,6 @@
     <t>remplacement format photo + compression photo</t>
   </si>
   <si>
-    <t>rajoue de title pour les images des logos principaux</t>
-  </si>
-  <si>
-    <t>rajoue title</t>
-  </si>
-  <si>
     <t>supression des .min pour les fichiers css et js</t>
   </si>
   <si>
@@ -272,9 +233,6 @@
     <t>mal codé-erreur au w3c</t>
   </si>
   <si>
-    <t xml:space="preserve">la langue du site pas précisé </t>
-  </si>
-  <si>
     <t>rajouté la langue du site</t>
   </si>
   <si>
@@ -297,6 +255,57 @@
   </si>
   <si>
     <t>changement font-zise</t>
+  </si>
+  <si>
+    <t>problème de performance sur les petits écrans</t>
+  </si>
+  <si>
+    <t>la langue du site n'est pas précisée</t>
+  </si>
+  <si>
+    <t>rajout d'un titre</t>
+  </si>
+  <si>
+    <t>Le bouton accueil ne doit pas apparaître sur la page1</t>
+  </si>
+  <si>
+    <t>Accueil pas utile</t>
+  </si>
+  <si>
+    <t>sup bouton accueil page principale</t>
+  </si>
+  <si>
+    <t>poid supplémentaire pas utile</t>
+  </si>
+  <si>
+    <t>liens sociaux renvoient sur la page d'acceuil</t>
+  </si>
+  <si>
+    <t>les liens renvoient sur la page acceuil du site</t>
+  </si>
+  <si>
+    <t>sémantique pas correcte</t>
+  </si>
+  <si>
+    <t>sur la page 2 le texte est caché par une bannière</t>
+  </si>
+  <si>
+    <t>pas d'adresse mail affilée</t>
+  </si>
+  <si>
+    <t>rajout des liens externes</t>
+  </si>
+  <si>
+    <t>rajout de title pour les images des logos principaux</t>
+  </si>
+  <si>
+    <t>rajout title</t>
+  </si>
+  <si>
+    <t xml:space="preserve">taille des images pas précisée pour les écrans plus petits </t>
+  </si>
+  <si>
+    <t xml:space="preserve">modifier taille des images </t>
   </si>
 </sst>
 </file>
@@ -596,16 +605,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z1002"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView tabSelected="1" topLeftCell="B15" workbookViewId="0">
+      <selection activeCell="D33" sqref="D33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.21875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="21.33203125" customWidth="1"/>
     <col min="2" max="2" width="52.88671875" customWidth="1"/>
-    <col min="3" max="3" width="33.6640625" customWidth="1"/>
-    <col min="4" max="4" width="34.109375" customWidth="1"/>
+    <col min="3" max="3" width="37.21875" customWidth="1"/>
+    <col min="4" max="4" width="39.33203125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="18.77734375" customWidth="1"/>
     <col min="6" max="6" width="21.33203125" customWidth="1"/>
     <col min="7" max="26" width="10.5546875" customWidth="1"/>
@@ -653,16 +662,16 @@
     </row>
     <row r="2" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="B2" t="s">
         <v>6</v>
       </c>
       <c r="C2" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="D2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E2" s="4" t="b">
         <v>0</v>
@@ -670,46 +679,46 @@
     </row>
     <row r="3" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="B3" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="C3" t="s">
-        <v>84</v>
+        <v>70</v>
       </c>
       <c r="D3" t="s">
-        <v>83</v>
+        <v>69</v>
       </c>
       <c r="E3" s="4"/>
     </row>
     <row r="4" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="B4" t="s">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="C4" t="s">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="D4" t="s">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="E4" s="4"/>
     </row>
     <row r="5" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="B5" t="s">
         <v>7</v>
       </c>
       <c r="C5" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="D5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E5" s="4" t="b">
         <v>0</v>
@@ -717,43 +726,43 @@
     </row>
     <row r="6" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="B6" t="s">
-        <v>59</v>
+        <v>49</v>
       </c>
       <c r="C6" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="D6" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="E6" s="4"/>
     </row>
     <row r="7" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="B7" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="D7" t="s">
-        <v>69</v>
+        <v>58</v>
       </c>
       <c r="E7" s="4"/>
     </row>
     <row r="8" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="B8" t="s">
         <v>8</v>
       </c>
       <c r="C8" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="D8" t="s">
-        <v>73</v>
+        <v>62</v>
       </c>
       <c r="E8" s="4" t="b">
         <v>0</v>
@@ -761,16 +770,16 @@
     </row>
     <row r="9" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="B9" t="s">
         <v>9</v>
       </c>
       <c r="C9" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="D9" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E9" s="4" t="b">
         <v>0</v>
@@ -778,31 +787,31 @@
     </row>
     <row r="10" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="B10" t="s">
-        <v>88</v>
+        <v>74</v>
       </c>
       <c r="C10" t="s">
-        <v>89</v>
+        <v>75</v>
       </c>
       <c r="D10" t="s">
-        <v>90</v>
+        <v>76</v>
       </c>
       <c r="E10" s="4"/>
     </row>
     <row r="11" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="B11" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="C11" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="D11" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E11" s="4" t="b">
         <v>0</v>
@@ -810,16 +819,16 @@
     </row>
     <row r="12" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="B12" t="s">
         <v>10</v>
       </c>
       <c r="C12" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="D12" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="E12" s="4" t="b">
         <v>0</v>
@@ -827,16 +836,16 @@
     </row>
     <row r="13" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="B13" t="s">
         <v>11</v>
       </c>
       <c r="C13" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="D13" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E13" s="4" t="b">
         <v>0</v>
@@ -844,13 +853,13 @@
     </row>
     <row r="14" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="B14" t="s">
         <v>12</v>
       </c>
       <c r="D14" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E14" s="4" t="b">
         <v>0</v>
@@ -858,16 +867,16 @@
     </row>
     <row r="15" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="B15" t="s">
         <v>13</v>
       </c>
       <c r="C15" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="D15" t="s">
-        <v>25</v>
+        <v>79</v>
       </c>
       <c r="E15" s="4" t="b">
         <v>0</v>
@@ -875,31 +884,31 @@
     </row>
     <row r="16" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
+        <v>27</v>
+      </c>
+      <c r="B16" t="s">
+        <v>31</v>
+      </c>
+      <c r="C16" t="s">
         <v>33</v>
       </c>
-      <c r="B16" t="s">
-        <v>38</v>
-      </c>
-      <c r="C16" t="s">
-        <v>40</v>
-      </c>
       <c r="D16" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="E16" s="4"/>
     </row>
     <row r="17" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="B17" t="s">
         <v>14</v>
       </c>
       <c r="C17" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="D17" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E17" s="4" t="b">
         <v>0</v>
@@ -907,16 +916,16 @@
     </row>
     <row r="18" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="B18" t="s">
-        <v>37</v>
+        <v>80</v>
       </c>
       <c r="C18" t="s">
-        <v>31</v>
+        <v>81</v>
       </c>
       <c r="D18" t="s">
-        <v>24</v>
+        <v>82</v>
       </c>
       <c r="E18" s="4" t="b">
         <v>0</v>
@@ -924,205 +933,218 @@
     </row>
     <row r="19" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="B19" t="s">
         <v>15</v>
       </c>
       <c r="C19" t="s">
-        <v>32</v>
+        <v>83</v>
       </c>
       <c r="D19" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="B20" t="s">
-        <v>16</v>
+        <v>84</v>
       </c>
       <c r="C20" t="s">
-        <v>43</v>
+        <v>85</v>
       </c>
       <c r="D20" t="s">
-        <v>23</v>
+        <v>89</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="B21" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="C21" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="D21" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="B22" t="s">
-        <v>47</v>
+        <v>86</v>
       </c>
       <c r="C22" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="D22" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
     </row>
     <row r="23" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="B23" t="s">
-        <v>87</v>
+        <v>73</v>
       </c>
       <c r="C23" t="s">
-        <v>85</v>
+        <v>71</v>
       </c>
       <c r="D23" t="s">
-        <v>86</v>
+        <v>72</v>
       </c>
     </row>
     <row r="24" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="B24" t="s">
-        <v>50</v>
+        <v>87</v>
       </c>
       <c r="C24" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="D24" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
     </row>
     <row r="25" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="B25" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="C25" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="D25" t="s">
-        <v>57</v>
+        <v>47</v>
       </c>
     </row>
     <row r="26" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="B26" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="C26" t="s">
-        <v>63</v>
+        <v>88</v>
       </c>
       <c r="D26" t="s">
-        <v>64</v>
+        <v>53</v>
       </c>
     </row>
     <row r="27" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="B27" t="s">
-        <v>67</v>
+        <v>56</v>
       </c>
       <c r="C27" t="s">
-        <v>65</v>
+        <v>54</v>
       </c>
       <c r="D27" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
     </row>
     <row r="28" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>81</v>
+        <v>68</v>
       </c>
       <c r="D28" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
     </row>
     <row r="29" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>74</v>
+        <v>90</v>
       </c>
       <c r="D29" t="s">
-        <v>75</v>
+        <v>91</v>
       </c>
     </row>
     <row r="30" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="B30" t="s">
-        <v>76</v>
+        <v>63</v>
       </c>
       <c r="C30" t="s">
-        <v>78</v>
+        <v>65</v>
       </c>
     </row>
     <row r="31" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="B31" t="s">
-        <v>79</v>
+        <v>66</v>
       </c>
       <c r="C31" t="s">
-        <v>77</v>
+        <v>64</v>
       </c>
     </row>
     <row r="32" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>80</v>
+        <v>67</v>
       </c>
       <c r="C32" t="s">
+        <v>64</v>
+      </c>
+      <c r="D32" s="5"/>
+    </row>
+    <row r="33" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>27</v>
+      </c>
+      <c r="B33" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="C33" t="s">
         <v>77</v>
       </c>
-      <c r="D32" s="5"/>
-    </row>
-    <row r="33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="34" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="35" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="36" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="37" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="38" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="39" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="40" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="41" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="42" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="43" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="44" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="46" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="47" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="48" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+      <c r="D33" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="35" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="36" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="37" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="38" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="39" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="40" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="41" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="42" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="43" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="44" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="45" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="46" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="47" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="48" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="49" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="50" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="51" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>

--- a/Modèle-audit-SEO.xlsx
+++ b/Modèle-audit-SEO.xlsx
@@ -305,7 +305,7 @@
     <t xml:space="preserve">taille des images pas précisée pour les écrans plus petits </t>
   </si>
   <si>
-    <t xml:space="preserve">modifier taille des images </t>
+    <t xml:space="preserve">modifier taille des images en css plus à la racine </t>
   </si>
 </sst>
 </file>
@@ -605,7 +605,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z1002"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B15" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="B25" workbookViewId="0">
       <selection activeCell="D33" sqref="D33"/>
     </sheetView>
   </sheetViews>

--- a/Modèle-audit-SEO.xlsx
+++ b/Modèle-audit-SEO.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\leona\OneDrive\Bureau\projet4\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/3c60e40338c66820/Bureau/projet4/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="120">
   <si>
     <t>Catégorie</t>
   </si>
@@ -155,9 +155,6 @@
     <t>suppresion meta name keywords</t>
   </si>
   <si>
-    <t>google ne reconnait pas la balise</t>
-  </si>
-  <si>
     <t>écrire les keywords dans le contenu du site</t>
   </si>
   <si>
@@ -224,9 +221,6 @@
     <t xml:space="preserve">chemin d'accès au fichier pas correct </t>
   </si>
   <si>
-    <t xml:space="preserve">suppression du mot device des media queries </t>
-  </si>
-  <si>
     <t>suppression de la partie constant(safe-area-inset-left); en css</t>
   </si>
   <si>
@@ -306,13 +300,97 @@
   </si>
   <si>
     <t xml:space="preserve">modifier taille des images en css plus à la racine </t>
+  </si>
+  <si>
+    <t>70 caractères max</t>
+  </si>
+  <si>
+    <t>html lang="fr"</t>
+  </si>
+  <si>
+    <t>nombre caractère mini 160</t>
+  </si>
+  <si>
+    <t>modif direct en css</t>
+  </si>
+  <si>
+    <t>&lt;meta name="robots"</t>
+  </si>
+  <si>
+    <t>google ne prend pas en compte pas la balise</t>
+  </si>
+  <si>
+    <t>format png ou jpg + compression</t>
+  </si>
+  <si>
+    <t>remplir correctement "alt"</t>
+  </si>
+  <si>
+    <t>écriture texte supp image</t>
+  </si>
+  <si>
+    <t>supp "index.html" remplacement par lien sociaux</t>
+  </si>
+  <si>
+    <t>rajout liens vers réseaux sociaux</t>
+  </si>
+  <si>
+    <t>rajout des balises &lt;header&gt; &lt;body&gt; &lt;main&gt;  &lt;footer&gt;</t>
+  </si>
+  <si>
+    <t>remplacement couleur en css</t>
+  </si>
+  <si>
+    <t>suppriment banière en html</t>
+  </si>
+  <si>
+    <t>bouton supprimer en html</t>
+  </si>
+  <si>
+    <t>création "mailto:contact@lachouetteagence.com"</t>
+  </si>
+  <si>
+    <t>création &lt;adress&gt; en html</t>
+  </si>
+  <si>
+    <t>réécriture du code en css</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;title&gt; rajouté en html </t>
+  </si>
+  <si>
+    <t>modifer chemin accès</t>
+  </si>
+  <si>
+    <t>modif en css</t>
+  </si>
+  <si>
+    <t>modif en css en "px"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">suppression du mot "device" des media queries </t>
+  </si>
+  <si>
+    <t>modif dimension de la photo de "base" plus en css</t>
+  </si>
+  <si>
+    <t>écrire pour les mots clé naturellement dans le contenu</t>
+  </si>
+  <si>
+    <t>font-zise 15px</t>
+  </si>
+  <si>
+    <t>ville de lyon dans le contenu du site</t>
+  </si>
+  <si>
+    <t>ajout uniquement des quelques liens externes de qualité</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -343,6 +421,22 @@
       <sz val="12"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -379,7 +473,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -388,6 +482,14 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -605,8 +707,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z1002"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B25" workbookViewId="0">
-      <selection activeCell="D33" sqref="D33"/>
+    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.21875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -615,7 +717,7 @@
     <col min="2" max="2" width="52.88671875" customWidth="1"/>
     <col min="3" max="3" width="37.21875" customWidth="1"/>
     <col min="4" max="4" width="39.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18.77734375" customWidth="1"/>
+    <col min="5" max="5" width="41.44140625" customWidth="1"/>
     <col min="6" max="6" width="21.33203125" customWidth="1"/>
     <col min="7" max="26" width="10.5546875" customWidth="1"/>
   </cols>
@@ -673,8 +775,8 @@
       <c r="D2" t="s">
         <v>16</v>
       </c>
-      <c r="E2" s="4" t="b">
-        <v>0</v>
+      <c r="E2" s="4" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="3" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -682,15 +784,17 @@
         <v>28</v>
       </c>
       <c r="B3" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C3" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D3" t="s">
-        <v>69</v>
-      </c>
-      <c r="E3" s="4"/>
+        <v>67</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>93</v>
+      </c>
     </row>
     <row r="4" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
@@ -699,13 +803,15 @@
       <c r="B4" t="s">
         <v>42</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="D4" t="s">
         <v>43</v>
       </c>
-      <c r="D4" t="s">
-        <v>44</v>
-      </c>
-      <c r="E4" s="4"/>
+      <c r="E4" s="8" t="s">
+        <v>116</v>
+      </c>
     </row>
     <row r="5" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
@@ -720,8 +826,8 @@
       <c r="D5" t="s">
         <v>17</v>
       </c>
-      <c r="E5" s="4" t="b">
-        <v>0</v>
+      <c r="E5" s="8" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="6" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -729,27 +835,31 @@
         <v>27</v>
       </c>
       <c r="B6" t="s">
+        <v>48</v>
+      </c>
+      <c r="C6" t="s">
         <v>49</v>
       </c>
-      <c r="C6" t="s">
+      <c r="D6" t="s">
         <v>50</v>
       </c>
-      <c r="D6" t="s">
-        <v>51</v>
-      </c>
-      <c r="E6" s="4"/>
-    </row>
-    <row r="7" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E6" s="8" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="7" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>28</v>
       </c>
       <c r="B7" t="s">
+        <v>56</v>
+      </c>
+      <c r="D7" t="s">
         <v>57</v>
       </c>
-      <c r="D7" t="s">
-        <v>58</v>
-      </c>
-      <c r="E7" s="4"/>
+      <c r="E7" s="6" t="s">
+        <v>96</v>
+      </c>
     </row>
     <row r="8" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
@@ -762,10 +872,10 @@
         <v>30</v>
       </c>
       <c r="D8" t="s">
-        <v>62</v>
-      </c>
-      <c r="E8" s="4" t="b">
-        <v>0</v>
+        <v>61</v>
+      </c>
+      <c r="E8" s="8" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="9" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -781,24 +891,24 @@
       <c r="D9" t="s">
         <v>20</v>
       </c>
-      <c r="E9" s="4" t="b">
-        <v>0</v>
-      </c>
+      <c r="E9" s="4"/>
     </row>
     <row r="10" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>27</v>
       </c>
       <c r="B10" t="s">
+        <v>72</v>
+      </c>
+      <c r="C10" t="s">
+        <v>73</v>
+      </c>
+      <c r="D10" t="s">
         <v>74</v>
       </c>
-      <c r="C10" t="s">
-        <v>75</v>
-      </c>
-      <c r="D10" t="s">
-        <v>76</v>
-      </c>
-      <c r="E10" s="4"/>
+      <c r="E10" s="8" t="s">
+        <v>117</v>
+      </c>
     </row>
     <row r="11" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
@@ -813,8 +923,8 @@
       <c r="D11" t="s">
         <v>18</v>
       </c>
-      <c r="E11" s="4" t="b">
-        <v>0</v>
+      <c r="E11" s="8" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="12" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -828,14 +938,14 @@
         <v>34</v>
       </c>
       <c r="D12" t="s">
-        <v>48</v>
-      </c>
-      <c r="E12" s="4" t="b">
-        <v>0</v>
+        <v>47</v>
+      </c>
+      <c r="E12" s="8" t="s">
+        <v>118</v>
       </c>
     </row>
     <row r="13" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
+      <c r="A13" s="5" t="s">
         <v>28</v>
       </c>
       <c r="B13" t="s">
@@ -861,8 +971,8 @@
       <c r="D14" t="s">
         <v>19</v>
       </c>
-      <c r="E14" s="4" t="b">
-        <v>0</v>
+      <c r="E14" s="8" t="s">
+        <v>119</v>
       </c>
     </row>
     <row r="15" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -876,10 +986,10 @@
         <v>23</v>
       </c>
       <c r="D15" t="s">
-        <v>79</v>
-      </c>
-      <c r="E15" s="4" t="b">
-        <v>0</v>
+        <v>77</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="16" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -910,8 +1020,8 @@
       <c r="D17" t="s">
         <v>17</v>
       </c>
-      <c r="E17" s="4" t="b">
-        <v>0</v>
+      <c r="E17" s="8" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -919,13 +1029,13 @@
         <v>27</v>
       </c>
       <c r="B18" t="s">
+        <v>78</v>
+      </c>
+      <c r="C18" t="s">
+        <v>79</v>
+      </c>
+      <c r="D18" t="s">
         <v>80</v>
-      </c>
-      <c r="C18" t="s">
-        <v>81</v>
-      </c>
-      <c r="D18" t="s">
-        <v>82</v>
       </c>
       <c r="E18" s="4" t="b">
         <v>0</v>
@@ -939,27 +1049,33 @@
         <v>15</v>
       </c>
       <c r="C19" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="D19" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="20" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E19" s="5" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>28</v>
       </c>
       <c r="B20" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C20" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D20" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>87</v>
+      </c>
+      <c r="E20" s="9" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>27</v>
       </c>
@@ -972,13 +1088,16 @@
       <c r="D21" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="22" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E21" s="9" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>28</v>
       </c>
       <c r="B22" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C22" t="s">
         <v>40</v>
@@ -986,165 +1105,201 @@
       <c r="D22" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="23" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E22" s="9" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>27</v>
       </c>
       <c r="B23" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C23" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D23" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>70</v>
+      </c>
+      <c r="E23" s="9" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>27</v>
       </c>
       <c r="B24" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C24" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D24" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="25" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E24" s="9" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>27</v>
       </c>
       <c r="B25" t="s">
+        <v>44</v>
+      </c>
+      <c r="C25" t="s">
         <v>45</v>
       </c>
-      <c r="C25" t="s">
+      <c r="D25" t="s">
         <v>46</v>
       </c>
-      <c r="D25" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E25" s="9" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>27</v>
       </c>
       <c r="B26" t="s">
+        <v>51</v>
+      </c>
+      <c r="C26" t="s">
+        <v>86</v>
+      </c>
+      <c r="D26" t="s">
         <v>52</v>
       </c>
-      <c r="C26" t="s">
-        <v>88</v>
-      </c>
-      <c r="D26" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E26" s="9" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>27</v>
       </c>
       <c r="B27" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C27" t="s">
+        <v>53</v>
+      </c>
+      <c r="D27" t="s">
         <v>54</v>
       </c>
-      <c r="D27" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E27" s="9" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>27</v>
       </c>
       <c r="B28" t="s">
+        <v>59</v>
+      </c>
+      <c r="C28" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="D28" t="s">
         <v>60</v>
       </c>
-      <c r="C28" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="D28" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E28" s="9" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D29" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>89</v>
+      </c>
+      <c r="E29" s="9" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>27</v>
       </c>
       <c r="B30" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C30" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>64</v>
+      </c>
+      <c r="E30" s="9" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>28</v>
       </c>
-      <c r="B31" t="s">
-        <v>66</v>
+      <c r="B31" s="5" t="s">
+        <v>114</v>
       </c>
       <c r="C31" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>63</v>
+      </c>
+      <c r="E31" s="9" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>28</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C32" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D32" s="5"/>
-    </row>
-    <row r="33" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E32" s="9" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>27</v>
       </c>
       <c r="B33" s="5" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C33" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D33" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="35" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="36" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="37" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="38" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="39" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="40" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="41" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="42" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="43" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="44" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="45" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="46" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="47" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="48" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+        <v>91</v>
+      </c>
+      <c r="E33" s="9" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="35" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="36" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="37" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="38" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="39" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="40" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="41" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="42" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="43" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="44" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="45" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="46" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="47" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="48" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="49" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="50" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="51" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>

--- a/Modèle-audit-SEO.xlsx
+++ b/Modèle-audit-SEO.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="124">
   <si>
     <t>Catégorie</t>
   </si>
@@ -384,6 +384,18 @@
   </si>
   <si>
     <t>ajout uniquement des quelques liens externes de qualité</t>
+  </si>
+  <si>
+    <t>problème vulnérabilité version bootsrap</t>
+  </si>
+  <si>
+    <t>version trop ancienne</t>
+  </si>
+  <si>
+    <t>modifier version</t>
+  </si>
+  <si>
+    <t>supp ancienne version remplacement nouvelle en html</t>
   </si>
 </sst>
 </file>
@@ -707,8 +719,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z1002"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="A18" sqref="A18"/>
+    <sheetView tabSelected="1" topLeftCell="C28" workbookViewId="0">
+      <selection activeCell="F36" sqref="F36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.21875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1285,7 +1297,23 @@
         <v>115</v>
       </c>
     </row>
-    <row r="34" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="34" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>27</v>
+      </c>
+      <c r="B34" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="C34" t="s">
+        <v>121</v>
+      </c>
+      <c r="D34" t="s">
+        <v>122</v>
+      </c>
+      <c r="E34" s="9" t="s">
+        <v>123</v>
+      </c>
+    </row>
     <row r="35" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="36" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="37" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>

--- a/Modèle-audit-SEO.xlsx
+++ b/Modèle-audit-SEO.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="128">
   <si>
     <t>Catégorie</t>
   </si>
@@ -396,6 +396,18 @@
   </si>
   <si>
     <t>supp ancienne version remplacement nouvelle en html</t>
+  </si>
+  <si>
+    <t>bannière couleur bleu inutile sur la page 1</t>
+  </si>
+  <si>
+    <t>alouride la page, invisible pour l'utilisateur</t>
+  </si>
+  <si>
+    <t>supprimer la bannière</t>
+  </si>
+  <si>
+    <t>supp banière dans le code html</t>
   </si>
 </sst>
 </file>
@@ -717,10 +729,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Z1002"/>
+  <dimension ref="A1:Z1003"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C28" workbookViewId="0">
-      <selection activeCell="F36" sqref="F36"/>
+    <sheetView tabSelected="1" topLeftCell="C10" workbookViewId="0">
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.21875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -969,9 +981,7 @@
       <c r="D13" t="s">
         <v>22</v>
       </c>
-      <c r="E13" s="4" t="b">
-        <v>0</v>
-      </c>
+      <c r="E13" s="4"/>
     </row>
     <row r="14" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
@@ -1009,133 +1019,131 @@
         <v>27</v>
       </c>
       <c r="B16" t="s">
-        <v>31</v>
+        <v>124</v>
       </c>
       <c r="C16" t="s">
-        <v>33</v>
+        <v>125</v>
       </c>
       <c r="D16" t="s">
-        <v>32</v>
-      </c>
-      <c r="E16" s="4"/>
+        <v>126</v>
+      </c>
+      <c r="E16" s="4" t="s">
+        <v>127</v>
+      </c>
     </row>
     <row r="17" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B17" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="C17" t="s">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="D17" t="s">
-        <v>17</v>
-      </c>
-      <c r="E17" s="8" t="s">
-        <v>94</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="E17" s="4"/>
     </row>
     <row r="18" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B18" t="s">
-        <v>78</v>
+        <v>14</v>
       </c>
       <c r="C18" t="s">
-        <v>79</v>
+        <v>24</v>
       </c>
       <c r="D18" t="s">
-        <v>80</v>
-      </c>
-      <c r="E18" s="4" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>17</v>
+      </c>
+      <c r="E18" s="8" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>27</v>
       </c>
       <c r="B19" t="s">
+        <v>78</v>
+      </c>
+      <c r="C19" t="s">
+        <v>79</v>
+      </c>
+      <c r="D19" t="s">
+        <v>80</v>
+      </c>
+      <c r="E19" s="4"/>
+    </row>
+    <row r="20" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>27</v>
+      </c>
+      <c r="B20" t="s">
         <v>15</v>
       </c>
-      <c r="C19" t="s">
+      <c r="C20" t="s">
         <v>81</v>
       </c>
-      <c r="D19" t="s">
+      <c r="D20" t="s">
         <v>21</v>
       </c>
-      <c r="E19" s="5" t="s">
+      <c r="E20" s="5" t="s">
         <v>100</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>28</v>
-      </c>
-      <c r="B20" t="s">
-        <v>82</v>
-      </c>
-      <c r="C20" t="s">
-        <v>83</v>
-      </c>
-      <c r="D20" t="s">
-        <v>87</v>
-      </c>
-      <c r="E20" s="9" t="s">
-        <v>101</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B21" t="s">
-        <v>36</v>
+        <v>82</v>
       </c>
       <c r="C21" t="s">
-        <v>38</v>
+        <v>83</v>
       </c>
       <c r="D21" t="s">
-        <v>37</v>
+        <v>87</v>
       </c>
       <c r="E21" s="9" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B22" t="s">
-        <v>84</v>
+        <v>36</v>
       </c>
       <c r="C22" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D22" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E22" s="9" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="23" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B23" t="s">
-        <v>71</v>
+        <v>84</v>
       </c>
       <c r="C23" t="s">
-        <v>69</v>
+        <v>40</v>
       </c>
       <c r="D23" t="s">
-        <v>70</v>
+        <v>39</v>
       </c>
       <c r="E23" s="9" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="24" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1143,16 +1151,16 @@
         <v>27</v>
       </c>
       <c r="B24" t="s">
-        <v>85</v>
+        <v>71</v>
       </c>
       <c r="C24" t="s">
-        <v>58</v>
+        <v>69</v>
       </c>
       <c r="D24" t="s">
-        <v>41</v>
+        <v>70</v>
       </c>
       <c r="E24" s="9" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="25" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1160,16 +1168,16 @@
         <v>27</v>
       </c>
       <c r="B25" t="s">
-        <v>44</v>
+        <v>85</v>
       </c>
       <c r="C25" t="s">
-        <v>45</v>
+        <v>58</v>
       </c>
       <c r="D25" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="E25" s="9" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="26" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1177,16 +1185,16 @@
         <v>27</v>
       </c>
       <c r="B26" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="C26" t="s">
-        <v>86</v>
+        <v>45</v>
       </c>
       <c r="D26" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="E26" s="9" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="27" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1194,16 +1202,16 @@
         <v>27</v>
       </c>
       <c r="B27" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="C27" t="s">
-        <v>53</v>
+        <v>86</v>
       </c>
       <c r="D27" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="E27" s="9" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="28" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1211,16 +1219,16 @@
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>59</v>
-      </c>
-      <c r="C28" s="5" t="s">
-        <v>66</v>
+        <v>55</v>
+      </c>
+      <c r="C28" t="s">
+        <v>53</v>
       </c>
       <c r="D28" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="E28" s="9" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="29" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1228,13 +1236,16 @@
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>88</v>
+        <v>59</v>
+      </c>
+      <c r="C29" s="5" t="s">
+        <v>66</v>
       </c>
       <c r="D29" t="s">
-        <v>89</v>
+        <v>60</v>
       </c>
       <c r="E29" s="9" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="30" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1242,27 +1253,27 @@
         <v>27</v>
       </c>
       <c r="B30" t="s">
-        <v>62</v>
-      </c>
-      <c r="C30" t="s">
-        <v>64</v>
+        <v>88</v>
+      </c>
+      <c r="D30" t="s">
+        <v>89</v>
       </c>
       <c r="E30" s="9" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="31" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>28</v>
-      </c>
-      <c r="B31" s="5" t="s">
-        <v>114</v>
+        <v>27</v>
+      </c>
+      <c r="B31" t="s">
+        <v>62</v>
       </c>
       <c r="C31" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E31" s="9" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="32" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1270,31 +1281,28 @@
         <v>28</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>65</v>
+        <v>114</v>
       </c>
       <c r="C32" t="s">
         <v>63</v>
       </c>
-      <c r="D32" s="5"/>
       <c r="E32" s="9" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="33" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B33" s="5" t="s">
-        <v>90</v>
+        <v>65</v>
       </c>
       <c r="C33" t="s">
-        <v>75</v>
-      </c>
-      <c r="D33" t="s">
-        <v>91</v>
-      </c>
+        <v>63</v>
+      </c>
+      <c r="D33" s="5"/>
       <c r="E33" s="9" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="34" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1302,19 +1310,35 @@
         <v>27</v>
       </c>
       <c r="B34" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="C34" t="s">
+        <v>75</v>
+      </c>
+      <c r="D34" t="s">
+        <v>91</v>
+      </c>
+      <c r="E34" s="9" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>27</v>
+      </c>
+      <c r="B35" s="5" t="s">
         <v>120</v>
       </c>
-      <c r="C34" t="s">
+      <c r="C35" t="s">
         <v>121</v>
       </c>
-      <c r="D34" t="s">
+      <c r="D35" t="s">
         <v>122</v>
       </c>
-      <c r="E34" s="9" t="s">
+      <c r="E35" s="9" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="35" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="36" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="37" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="38" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2282,6 +2306,7 @@
     <row r="1000" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="1001" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="1002" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="1003" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape" r:id="rId1"/>

--- a/Modèle-audit-SEO.xlsx
+++ b/Modèle-audit-SEO.xlsx
@@ -386,9 +386,6 @@
     <t>ajout uniquement des quelques liens externes de qualité</t>
   </si>
   <si>
-    <t>problème vulnérabilité version bootsrap</t>
-  </si>
-  <si>
     <t>version trop ancienne</t>
   </si>
   <si>
@@ -408,6 +405,9 @@
   </si>
   <si>
     <t>supp banière dans le code html</t>
+  </si>
+  <si>
+    <t>problème vulnérabilité à cause des versions bootsrap et jquery</t>
   </si>
 </sst>
 </file>
@@ -731,8 +731,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z1003"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C10" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="B39" sqref="B39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.21875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1019,16 +1019,16 @@
         <v>27</v>
       </c>
       <c r="B16" t="s">
+        <v>123</v>
+      </c>
+      <c r="C16" t="s">
         <v>124</v>
       </c>
-      <c r="C16" t="s">
+      <c r="D16" t="s">
         <v>125</v>
       </c>
-      <c r="D16" t="s">
+      <c r="E16" s="4" t="s">
         <v>126</v>
-      </c>
-      <c r="E16" s="4" t="s">
-        <v>127</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1327,16 +1327,16 @@
         <v>27</v>
       </c>
       <c r="B35" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="C35" t="s">
         <v>120</v>
       </c>
-      <c r="C35" t="s">
+      <c r="D35" t="s">
         <v>121</v>
       </c>
-      <c r="D35" t="s">
+      <c r="E35" s="9" t="s">
         <v>122</v>
-      </c>
-      <c r="E35" s="9" t="s">
-        <v>123</v>
       </c>
     </row>
     <row r="36" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>

--- a/Modèle-audit-SEO.xlsx
+++ b/Modèle-audit-SEO.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="133">
   <si>
     <t>Catégorie</t>
   </si>
@@ -408,6 +408,21 @@
   </si>
   <si>
     <t>problème vulnérabilité à cause des versions bootsrap et jquery</t>
+  </si>
+  <si>
+    <t xml:space="preserve">La partie "script" n'est pas bien positionné </t>
+  </si>
+  <si>
+    <t>le site doit charger la partie "script" en dernier</t>
+  </si>
+  <si>
+    <t>modifier l'emplacement de la partie "script"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">déplacement partie nommée </t>
+  </si>
+  <si>
+    <t>trop de liens présents de plus les sites ne fonctionnent pas</t>
   </si>
 </sst>
 </file>
@@ -729,17 +744,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Z1003"/>
+  <dimension ref="A1:Z1004"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="B39" sqref="B39"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.21875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="21.33203125" customWidth="1"/>
     <col min="2" max="2" width="52.88671875" customWidth="1"/>
-    <col min="3" max="3" width="37.21875" customWidth="1"/>
+    <col min="3" max="3" width="45.88671875" customWidth="1"/>
     <col min="4" max="4" width="39.33203125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="41.44140625" customWidth="1"/>
     <col min="6" max="6" width="21.33203125" customWidth="1"/>
@@ -855,51 +870,51 @@
       </c>
     </row>
     <row r="6" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+      <c r="A6" s="3" t="s">
         <v>27</v>
       </c>
       <c r="B6" t="s">
+        <v>128</v>
+      </c>
+      <c r="C6" t="s">
+        <v>129</v>
+      </c>
+      <c r="D6" t="s">
+        <v>130</v>
+      </c>
+      <c r="E6" s="8" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="7" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>27</v>
+      </c>
+      <c r="B7" t="s">
         <v>48</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C7" t="s">
         <v>49</v>
       </c>
-      <c r="D6" t="s">
+      <c r="D7" t="s">
         <v>50</v>
       </c>
-      <c r="E6" s="8" t="s">
+      <c r="E7" s="8" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="7" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
+    <row r="8" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
         <v>28</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B8" t="s">
         <v>56</v>
       </c>
-      <c r="D7" t="s">
+      <c r="D8" t="s">
         <v>57</v>
       </c>
-      <c r="E7" s="6" t="s">
+      <c r="E8" s="6" t="s">
         <v>96</v>
-      </c>
-    </row>
-    <row r="8" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>27</v>
-      </c>
-      <c r="B8" t="s">
-        <v>8</v>
-      </c>
-      <c r="C8" t="s">
-        <v>30</v>
-      </c>
-      <c r="D8" t="s">
-        <v>61</v>
-      </c>
-      <c r="E8" s="8" t="s">
-        <v>98</v>
       </c>
     </row>
     <row r="9" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -907,128 +922,131 @@
         <v>27</v>
       </c>
       <c r="B9" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C9" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D9" t="s">
-        <v>20</v>
-      </c>
-      <c r="E9" s="4"/>
+        <v>61</v>
+      </c>
+      <c r="E9" s="8" t="s">
+        <v>98</v>
+      </c>
     </row>
     <row r="10" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>27</v>
       </c>
       <c r="B10" t="s">
-        <v>72</v>
+        <v>9</v>
       </c>
       <c r="C10" t="s">
-        <v>73</v>
+        <v>25</v>
       </c>
       <c r="D10" t="s">
-        <v>74</v>
-      </c>
-      <c r="E10" s="8" t="s">
-        <v>117</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="E10" s="4"/>
     </row>
     <row r="11" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>27</v>
       </c>
       <c r="B11" t="s">
-        <v>29</v>
+        <v>72</v>
       </c>
       <c r="C11" t="s">
-        <v>26</v>
+        <v>73</v>
       </c>
       <c r="D11" t="s">
-        <v>18</v>
+        <v>74</v>
       </c>
       <c r="E11" s="8" t="s">
-        <v>99</v>
+        <v>117</v>
       </c>
     </row>
     <row r="12" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
+        <v>27</v>
+      </c>
+      <c r="B12" t="s">
+        <v>29</v>
+      </c>
+      <c r="C12" t="s">
+        <v>26</v>
+      </c>
+      <c r="D12" t="s">
+        <v>18</v>
+      </c>
+      <c r="E12" s="8" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="13" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
         <v>28</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B13" t="s">
         <v>10</v>
       </c>
-      <c r="C12" t="s">
+      <c r="C13" t="s">
         <v>34</v>
       </c>
-      <c r="D12" t="s">
+      <c r="D13" t="s">
         <v>47</v>
       </c>
-      <c r="E12" s="8" t="s">
+      <c r="E13" s="8" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="13" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="5" t="s">
+    <row r="14" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B14" t="s">
         <v>11</v>
       </c>
-      <c r="C13" t="s">
+      <c r="C14" t="s">
         <v>35</v>
       </c>
-      <c r="D13" t="s">
+      <c r="D14" t="s">
         <v>22</v>
       </c>
-      <c r="E13" s="4"/>
-    </row>
-    <row r="14" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>28</v>
-      </c>
-      <c r="B14" t="s">
-        <v>12</v>
-      </c>
-      <c r="D14" t="s">
-        <v>19</v>
-      </c>
-      <c r="E14" s="8" t="s">
-        <v>119</v>
-      </c>
+      <c r="E14" s="4"/>
     </row>
     <row r="15" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>28</v>
       </c>
       <c r="B15" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C15" t="s">
-        <v>23</v>
+        <v>132</v>
       </c>
       <c r="D15" t="s">
-        <v>77</v>
-      </c>
-      <c r="E15" s="4" t="s">
-        <v>92</v>
+        <v>19</v>
+      </c>
+      <c r="E15" s="8" t="s">
+        <v>119</v>
       </c>
     </row>
     <row r="16" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B16" t="s">
-        <v>123</v>
+        <v>13</v>
       </c>
       <c r="C16" t="s">
-        <v>124</v>
+        <v>23</v>
       </c>
       <c r="D16" t="s">
-        <v>125</v>
+        <v>77</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>126</v>
+        <v>92</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1036,131 +1054,131 @@
         <v>27</v>
       </c>
       <c r="B17" t="s">
-        <v>31</v>
+        <v>123</v>
       </c>
       <c r="C17" t="s">
-        <v>33</v>
+        <v>124</v>
       </c>
       <c r="D17" t="s">
-        <v>32</v>
-      </c>
-      <c r="E17" s="4"/>
+        <v>125</v>
+      </c>
+      <c r="E17" s="4" t="s">
+        <v>126</v>
+      </c>
     </row>
     <row r="18" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B18" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="C18" t="s">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="D18" t="s">
-        <v>17</v>
-      </c>
-      <c r="E18" s="8" t="s">
-        <v>94</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="E18" s="4"/>
     </row>
     <row r="19" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B19" t="s">
-        <v>78</v>
+        <v>14</v>
       </c>
       <c r="C19" t="s">
-        <v>79</v>
+        <v>24</v>
       </c>
       <c r="D19" t="s">
-        <v>80</v>
-      </c>
-      <c r="E19" s="4"/>
-    </row>
-    <row r="20" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>17</v>
+      </c>
+      <c r="E19" s="8" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>27</v>
       </c>
       <c r="B20" t="s">
+        <v>78</v>
+      </c>
+      <c r="C20" t="s">
+        <v>79</v>
+      </c>
+      <c r="D20" t="s">
+        <v>80</v>
+      </c>
+      <c r="E20" s="4"/>
+    </row>
+    <row r="21" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>27</v>
+      </c>
+      <c r="B21" t="s">
         <v>15</v>
       </c>
-      <c r="C20" t="s">
+      <c r="C21" t="s">
         <v>81</v>
       </c>
-      <c r="D20" t="s">
+      <c r="D21" t="s">
         <v>21</v>
       </c>
-      <c r="E20" s="5" t="s">
+      <c r="E21" s="5" t="s">
         <v>100</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>28</v>
-      </c>
-      <c r="B21" t="s">
-        <v>82</v>
-      </c>
-      <c r="C21" t="s">
-        <v>83</v>
-      </c>
-      <c r="D21" t="s">
-        <v>87</v>
-      </c>
-      <c r="E21" s="9" t="s">
-        <v>101</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B22" t="s">
-        <v>36</v>
+        <v>82</v>
       </c>
       <c r="C22" t="s">
-        <v>38</v>
+        <v>83</v>
       </c>
       <c r="D22" t="s">
-        <v>37</v>
+        <v>87</v>
       </c>
       <c r="E22" s="9" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="23" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B23" t="s">
-        <v>84</v>
+        <v>36</v>
       </c>
       <c r="C23" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D23" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E23" s="9" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="24" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B24" t="s">
-        <v>71</v>
+        <v>84</v>
       </c>
       <c r="C24" t="s">
-        <v>69</v>
+        <v>40</v>
       </c>
       <c r="D24" t="s">
-        <v>70</v>
+        <v>39</v>
       </c>
       <c r="E24" s="9" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="25" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1168,16 +1186,16 @@
         <v>27</v>
       </c>
       <c r="B25" t="s">
-        <v>85</v>
+        <v>71</v>
       </c>
       <c r="C25" t="s">
-        <v>58</v>
+        <v>69</v>
       </c>
       <c r="D25" t="s">
-        <v>41</v>
+        <v>70</v>
       </c>
       <c r="E25" s="9" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="26" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1185,16 +1203,16 @@
         <v>27</v>
       </c>
       <c r="B26" t="s">
-        <v>44</v>
+        <v>85</v>
       </c>
       <c r="C26" t="s">
-        <v>45</v>
+        <v>58</v>
       </c>
       <c r="D26" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="E26" s="9" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="27" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1202,16 +1220,16 @@
         <v>27</v>
       </c>
       <c r="B27" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="C27" t="s">
-        <v>86</v>
+        <v>45</v>
       </c>
       <c r="D27" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="E27" s="9" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="28" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1219,16 +1237,16 @@
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="C28" t="s">
-        <v>53</v>
+        <v>86</v>
       </c>
       <c r="D28" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="E28" s="9" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="29" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1236,16 +1254,16 @@
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>59</v>
-      </c>
-      <c r="C29" s="5" t="s">
-        <v>66</v>
+        <v>55</v>
+      </c>
+      <c r="C29" t="s">
+        <v>53</v>
       </c>
       <c r="D29" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="E29" s="9" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="30" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1253,13 +1271,16 @@
         <v>27</v>
       </c>
       <c r="B30" t="s">
-        <v>88</v>
+        <v>59</v>
+      </c>
+      <c r="C30" s="5" t="s">
+        <v>66</v>
       </c>
       <c r="D30" t="s">
-        <v>89</v>
+        <v>60</v>
       </c>
       <c r="E30" s="9" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="31" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1267,27 +1288,27 @@
         <v>27</v>
       </c>
       <c r="B31" t="s">
-        <v>62</v>
-      </c>
-      <c r="C31" t="s">
-        <v>64</v>
+        <v>88</v>
+      </c>
+      <c r="D31" t="s">
+        <v>89</v>
       </c>
       <c r="E31" s="9" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="32" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>28</v>
-      </c>
-      <c r="B32" s="5" t="s">
-        <v>114</v>
+        <v>27</v>
+      </c>
+      <c r="B32" t="s">
+        <v>62</v>
       </c>
       <c r="C32" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E32" s="9" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="33" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1295,31 +1316,28 @@
         <v>28</v>
       </c>
       <c r="B33" s="5" t="s">
-        <v>65</v>
+        <v>114</v>
       </c>
       <c r="C33" t="s">
         <v>63</v>
       </c>
-      <c r="D33" s="5"/>
       <c r="E33" s="9" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="34" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B34" s="5" t="s">
-        <v>90</v>
+        <v>65</v>
       </c>
       <c r="C34" t="s">
-        <v>75</v>
-      </c>
-      <c r="D34" t="s">
-        <v>91</v>
-      </c>
+        <v>63</v>
+      </c>
+      <c r="D34" s="5"/>
       <c r="E34" s="9" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="35" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1327,19 +1345,35 @@
         <v>27</v>
       </c>
       <c r="B35" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="C35" t="s">
+        <v>75</v>
+      </c>
+      <c r="D35" t="s">
+        <v>91</v>
+      </c>
+      <c r="E35" s="9" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>27</v>
+      </c>
+      <c r="B36" s="5" t="s">
         <v>127</v>
       </c>
-      <c r="C35" t="s">
+      <c r="C36" t="s">
         <v>120</v>
       </c>
-      <c r="D35" t="s">
+      <c r="D36" t="s">
         <v>121</v>
       </c>
-      <c r="E35" s="9" t="s">
+      <c r="E36" s="9" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="36" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="37" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="38" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="39" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2307,6 +2341,7 @@
     <row r="1001" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="1002" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="1003" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="1004" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape" r:id="rId1"/>

--- a/Modèle-audit-SEO.xlsx
+++ b/Modèle-audit-SEO.xlsx
@@ -395,9 +395,6 @@
     <t>supp ancienne version remplacement nouvelle en html</t>
   </si>
   <si>
-    <t>bannière couleur bleu inutile sur la page 1</t>
-  </si>
-  <si>
     <t>alouride la page, invisible pour l'utilisateur</t>
   </si>
   <si>
@@ -423,6 +420,9 @@
   </si>
   <si>
     <t>trop de liens présents de plus les sites ne fonctionnent pas</t>
+  </si>
+  <si>
+    <t>bannière couleur bleu et une blanche inutile sur la page 1</t>
   </si>
 </sst>
 </file>
@@ -747,7 +747,7 @@
   <dimension ref="A1:Z1004"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.21875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -874,16 +874,16 @@
         <v>27</v>
       </c>
       <c r="B6" t="s">
+        <v>127</v>
+      </c>
+      <c r="C6" t="s">
         <v>128</v>
       </c>
-      <c r="C6" t="s">
+      <c r="D6" t="s">
         <v>129</v>
       </c>
-      <c r="D6" t="s">
+      <c r="E6" s="8" t="s">
         <v>130</v>
-      </c>
-      <c r="E6" s="8" t="s">
-        <v>131</v>
       </c>
     </row>
     <row r="7" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1023,7 +1023,7 @@
         <v>12</v>
       </c>
       <c r="C15" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D15" t="s">
         <v>19</v>
@@ -1054,16 +1054,16 @@
         <v>27</v>
       </c>
       <c r="B17" t="s">
+        <v>132</v>
+      </c>
+      <c r="C17" t="s">
         <v>123</v>
       </c>
-      <c r="C17" t="s">
+      <c r="D17" t="s">
         <v>124</v>
       </c>
-      <c r="D17" t="s">
+      <c r="E17" s="4" t="s">
         <v>125</v>
-      </c>
-      <c r="E17" s="4" t="s">
-        <v>126</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1362,7 +1362,7 @@
         <v>27</v>
       </c>
       <c r="B36" s="5" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C36" t="s">
         <v>120</v>

--- a/Modèle-audit-SEO.xlsx
+++ b/Modèle-audit-SEO.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="137">
   <si>
     <t>Catégorie</t>
   </si>
@@ -152,12 +152,6 @@
     <t>supprimer la banière pour voir le texte</t>
   </si>
   <si>
-    <t>suppresion meta name keywords</t>
-  </si>
-  <si>
-    <t>écrire les keywords dans le contenu du site</t>
-  </si>
-  <si>
     <t>bouton toogle navigation qui apparait</t>
   </si>
   <si>
@@ -317,9 +311,6 @@
     <t>&lt;meta name="robots"</t>
   </si>
   <si>
-    <t>google ne prend pas en compte pas la balise</t>
-  </si>
-  <si>
     <t>format png ou jpg + compression</t>
   </si>
   <si>
@@ -374,9 +365,6 @@
     <t>modif dimension de la photo de "base" plus en css</t>
   </si>
   <si>
-    <t>écrire pour les mots clé naturellement dans le contenu</t>
-  </si>
-  <si>
     <t>font-zise 15px</t>
   </si>
   <si>
@@ -423,6 +411,30 @@
   </si>
   <si>
     <t>bannière couleur bleu et une blanche inutile sur la page 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fichiers js et css non utilisés </t>
+  </si>
+  <si>
+    <t xml:space="preserve">code pas utile pour la page </t>
+  </si>
+  <si>
+    <t>supprimer car ralenti le chargement de la page</t>
+  </si>
+  <si>
+    <t>supprimer direct dans le html les chemins css et js</t>
+  </si>
+  <si>
+    <t>google ne prend pas en compte le comptenu de la balise</t>
+  </si>
+  <si>
+    <t xml:space="preserve">la laisser vierge </t>
+  </si>
+  <si>
+    <t>supp des mots-clés à l'intérieur, qui en plus ne sont pas corrects</t>
+  </si>
+  <si>
+    <t>&lt;meta name=keywords&gt;  mal remplie et ne doit pas être remplie</t>
   </si>
 </sst>
 </file>
@@ -744,10 +756,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Z1004"/>
+  <dimension ref="A1:Z1005"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.21875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -756,7 +768,7 @@
     <col min="2" max="2" width="52.88671875" customWidth="1"/>
     <col min="3" max="3" width="45.88671875" customWidth="1"/>
     <col min="4" max="4" width="39.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="41.44140625" customWidth="1"/>
+    <col min="5" max="5" width="44.21875" customWidth="1"/>
     <col min="6" max="6" width="21.33203125" customWidth="1"/>
     <col min="7" max="26" width="10.5546875" customWidth="1"/>
   </cols>
@@ -815,7 +827,7 @@
         <v>16</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="3" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -823,16 +835,16 @@
         <v>28</v>
       </c>
       <c r="B3" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C3" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D3" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="4" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -840,16 +852,16 @@
         <v>28</v>
       </c>
       <c r="B4" t="s">
-        <v>42</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>97</v>
+        <v>136</v>
+      </c>
+      <c r="C4" t="s">
+        <v>133</v>
       </c>
       <c r="D4" t="s">
-        <v>43</v>
-      </c>
-      <c r="E4" s="8" t="s">
-        <v>116</v>
+        <v>134</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>135</v>
       </c>
     </row>
     <row r="5" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -866,7 +878,7 @@
         <v>17</v>
       </c>
       <c r="E5" s="8" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="6" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -874,16 +886,16 @@
         <v>27</v>
       </c>
       <c r="B6" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="C6" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="D6" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="E6" s="8" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
     </row>
     <row r="7" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -891,16 +903,16 @@
         <v>27</v>
       </c>
       <c r="B7" t="s">
+        <v>46</v>
+      </c>
+      <c r="C7" t="s">
+        <v>47</v>
+      </c>
+      <c r="D7" t="s">
         <v>48</v>
       </c>
-      <c r="C7" t="s">
-        <v>49</v>
-      </c>
-      <c r="D7" t="s">
-        <v>50</v>
-      </c>
       <c r="E7" s="8" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="8" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -908,13 +920,13 @@
         <v>28</v>
       </c>
       <c r="B8" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D8" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E8" s="6" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="9" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -928,10 +940,10 @@
         <v>30</v>
       </c>
       <c r="D9" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="E9" s="8" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
     </row>
     <row r="10" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -954,16 +966,16 @@
         <v>27</v>
       </c>
       <c r="B11" t="s">
+        <v>70</v>
+      </c>
+      <c r="C11" t="s">
+        <v>71</v>
+      </c>
+      <c r="D11" t="s">
         <v>72</v>
       </c>
-      <c r="C11" t="s">
-        <v>73</v>
-      </c>
-      <c r="D11" t="s">
-        <v>74</v>
-      </c>
       <c r="E11" s="8" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
     </row>
     <row r="12" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -980,7 +992,7 @@
         <v>18</v>
       </c>
       <c r="E12" s="8" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
     </row>
     <row r="13" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -994,10 +1006,10 @@
         <v>34</v>
       </c>
       <c r="D13" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="E13" s="8" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
     </row>
     <row r="14" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1023,13 +1035,13 @@
         <v>12</v>
       </c>
       <c r="C15" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="D15" t="s">
         <v>19</v>
       </c>
       <c r="E15" s="8" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
     </row>
     <row r="16" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1043,10 +1055,10 @@
         <v>23</v>
       </c>
       <c r="D16" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1054,16 +1066,16 @@
         <v>27</v>
       </c>
       <c r="B17" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="C17" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="D17" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1095,7 +1107,7 @@
         <v>17</v>
       </c>
       <c r="E19" s="8" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1103,13 +1115,13 @@
         <v>27</v>
       </c>
       <c r="B20" t="s">
+        <v>76</v>
+      </c>
+      <c r="C20" t="s">
+        <v>77</v>
+      </c>
+      <c r="D20" t="s">
         <v>78</v>
-      </c>
-      <c r="C20" t="s">
-        <v>79</v>
-      </c>
-      <c r="D20" t="s">
-        <v>80</v>
       </c>
       <c r="E20" s="4"/>
     </row>
@@ -1121,13 +1133,13 @@
         <v>15</v>
       </c>
       <c r="C21" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D21" t="s">
         <v>21</v>
       </c>
       <c r="E21" s="5" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1135,16 +1147,16 @@
         <v>28</v>
       </c>
       <c r="B22" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C22" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="D22" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="E22" s="9" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
     </row>
     <row r="23" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1161,7 +1173,7 @@
         <v>37</v>
       </c>
       <c r="E23" s="9" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
     </row>
     <row r="24" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1169,7 +1181,7 @@
         <v>28</v>
       </c>
       <c r="B24" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C24" t="s">
         <v>40</v>
@@ -1178,7 +1190,7 @@
         <v>39</v>
       </c>
       <c r="E24" s="9" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
     </row>
     <row r="25" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1186,16 +1198,16 @@
         <v>27</v>
       </c>
       <c r="B25" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C25" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D25" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="E25" s="9" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
     <row r="26" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1203,16 +1215,16 @@
         <v>27</v>
       </c>
       <c r="B26" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C26" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D26" t="s">
         <v>41</v>
       </c>
       <c r="E26" s="9" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
     </row>
     <row r="27" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1220,16 +1232,16 @@
         <v>27</v>
       </c>
       <c r="B27" t="s">
+        <v>42</v>
+      </c>
+      <c r="C27" t="s">
+        <v>43</v>
+      </c>
+      <c r="D27" t="s">
         <v>44</v>
       </c>
-      <c r="C27" t="s">
-        <v>45</v>
-      </c>
-      <c r="D27" t="s">
-        <v>46</v>
-      </c>
       <c r="E27" s="9" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
     </row>
     <row r="28" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1237,16 +1249,16 @@
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C28" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D28" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="E28" s="9" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
     </row>
     <row r="29" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1254,16 +1266,16 @@
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C29" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D29" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="E29" s="9" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
     </row>
     <row r="30" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1271,16 +1283,16 @@
         <v>27</v>
       </c>
       <c r="B30" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C30" s="5" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D30" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="E30" s="9" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
     </row>
     <row r="31" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1288,13 +1300,13 @@
         <v>27</v>
       </c>
       <c r="B31" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D31" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="E31" s="9" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
     </row>
     <row r="32" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1302,27 +1314,30 @@
         <v>27</v>
       </c>
       <c r="B32" t="s">
+        <v>60</v>
+      </c>
+      <c r="C32" t="s">
         <v>62</v>
       </c>
-      <c r="C32" t="s">
-        <v>64</v>
-      </c>
       <c r="E32" s="9" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
     </row>
     <row r="33" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>28</v>
-      </c>
-      <c r="B33" s="5" t="s">
-        <v>114</v>
+        <v>27</v>
+      </c>
+      <c r="B33" t="s">
+        <v>129</v>
       </c>
       <c r="C33" t="s">
-        <v>63</v>
+        <v>130</v>
+      </c>
+      <c r="D33" t="s">
+        <v>131</v>
       </c>
       <c r="E33" s="9" t="s">
-        <v>112</v>
+        <v>132</v>
       </c>
     </row>
     <row r="34" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1330,31 +1345,28 @@
         <v>28</v>
       </c>
       <c r="B34" s="5" t="s">
-        <v>65</v>
+        <v>111</v>
       </c>
       <c r="C34" t="s">
-        <v>63</v>
-      </c>
-      <c r="D34" s="5"/>
+        <v>61</v>
+      </c>
       <c r="E34" s="9" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
     </row>
     <row r="35" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B35" s="5" t="s">
-        <v>90</v>
+        <v>63</v>
       </c>
       <c r="C35" t="s">
-        <v>75</v>
-      </c>
-      <c r="D35" t="s">
-        <v>91</v>
-      </c>
+        <v>61</v>
+      </c>
+      <c r="D35" s="5"/>
       <c r="E35" s="9" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
     </row>
     <row r="36" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1362,19 +1374,35 @@
         <v>27</v>
       </c>
       <c r="B36" s="5" t="s">
-        <v>126</v>
+        <v>88</v>
       </c>
       <c r="C36" t="s">
-        <v>120</v>
+        <v>73</v>
       </c>
       <c r="D36" t="s">
-        <v>121</v>
+        <v>89</v>
       </c>
       <c r="E36" s="9" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>27</v>
+      </c>
+      <c r="B37" s="5" t="s">
         <v>122</v>
       </c>
-    </row>
-    <row r="37" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+      <c r="C37" t="s">
+        <v>116</v>
+      </c>
+      <c r="D37" t="s">
+        <v>117</v>
+      </c>
+      <c r="E37" s="9" t="s">
+        <v>118</v>
+      </c>
+    </row>
     <row r="38" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="39" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="40" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2342,6 +2370,7 @@
     <row r="1002" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="1003" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="1004" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="1005" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape" r:id="rId1"/>
